--- a/database/industries/felezat/fameli/cost/quarterly.xlsx
+++ b/database/industries/felezat/fameli/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fameli\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEF7261-6811-43E0-98DD-59DCDFFAE76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8BDD5C-5D70-4EB9-B754-1C480D12125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سیلیس درشت</t>
@@ -724,16 +739,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I225"/>
+  <dimension ref="B1:N225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -742,8 +757,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,8 +774,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -766,8 +791,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -776,8 +806,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -788,8 +823,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -800,8 +840,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -810,8 +855,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -832,8 +882,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -842,142 +907,237 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>2897361</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6971801</v>
+      </c>
+      <c r="G10" s="9">
+        <v>10894049</v>
+      </c>
+      <c r="H10" s="9">
+        <v>11256720</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10386955</v>
+      </c>
+      <c r="J10" s="9">
         <v>10234293</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>15862106</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>13905468</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>7641825</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>7588132</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>4645768</v>
+      </c>
+      <c r="F11" s="11">
+        <v>12173403</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1317871</v>
+      </c>
+      <c r="H11" s="11">
+        <v>11820014</v>
+      </c>
+      <c r="I11" s="11">
+        <v>6622177</v>
+      </c>
+      <c r="J11" s="11">
         <v>18448684</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>2448720</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>21922185</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>23511940</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>23648383</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>24952107</v>
+      </c>
+      <c r="F12" s="9">
+        <v>20585674</v>
+      </c>
+      <c r="G12" s="9">
+        <v>39980138</v>
+      </c>
+      <c r="H12" s="9">
+        <v>33072506</v>
+      </c>
+      <c r="I12" s="9">
+        <v>49185137</v>
+      </c>
+      <c r="J12" s="9">
         <v>32791225</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>76593168</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>57761363</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>58002750</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>69500599</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>32495236</v>
+      </c>
+      <c r="F13" s="13">
+        <v>39730878</v>
+      </c>
+      <c r="G13" s="13">
+        <v>52192058</v>
+      </c>
+      <c r="H13" s="13">
+        <v>56149240</v>
+      </c>
+      <c r="I13" s="13">
+        <v>66194269</v>
+      </c>
+      <c r="J13" s="13">
         <v>61474202</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>94903994</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>93589016</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>89156515</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>100737114</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-454038</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-753004</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-287384</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-685318</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-2654923</v>
+      </c>
+      <c r="J14" s="9">
         <v>-1612166</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-1323419</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-1556542</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-1707094</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-2267881</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>32041198</v>
+      </c>
+      <c r="F15" s="13">
+        <v>38977874</v>
+      </c>
+      <c r="G15" s="13">
+        <v>51904674</v>
+      </c>
+      <c r="H15" s="13">
+        <v>55463922</v>
+      </c>
+      <c r="I15" s="13">
+        <v>63539346</v>
+      </c>
+      <c r="J15" s="13">
         <v>59862036</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>93580575</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>92032474</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>87449421</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>98469233</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -996,10 +1156,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1018,32 +1193,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>32041198</v>
+      </c>
+      <c r="F18" s="15">
+        <v>38977874</v>
+      </c>
+      <c r="G18" s="15">
+        <v>51904674</v>
+      </c>
+      <c r="H18" s="15">
+        <v>55463922</v>
+      </c>
+      <c r="I18" s="15">
+        <v>63539346</v>
+      </c>
+      <c r="J18" s="15">
         <v>59862036</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>93580575</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>92032474</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>87449421</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>98469233</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1051,65 +1256,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>8360708</v>
+      </c>
+      <c r="H19" s="11">
+        <v>48168093</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>2523887</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>47314595</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>57554474</v>
       </c>
-      <c r="I19" s="11">
-        <v>64662449</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>47314595</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>1886192</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-8360708</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-71122071</v>
+      </c>
+      <c r="I20" s="9">
+        <v>9000148</v>
+      </c>
+      <c r="J20" s="9">
         <v>-2523887</v>
       </c>
-      <c r="F20" s="9">
-        <v>-47314595</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="K20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="9">
         <v>-57554474</v>
       </c>
-      <c r="H20" s="9">
-        <v>-64662449</v>
-      </c>
-      <c r="I20" s="9">
-        <v>-81087003</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>33927390</v>
+      </c>
+      <c r="F21" s="13">
+        <v>30617166</v>
+      </c>
+      <c r="G21" s="13">
+        <v>47340814</v>
+      </c>
+      <c r="H21" s="13">
+        <v>32509944</v>
+      </c>
+      <c r="I21" s="13">
+        <v>72539494</v>
+      </c>
+      <c r="J21" s="13">
         <v>57338149</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>110911790</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>81792595</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>80341446</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>82044679</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1128,30 +1378,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>33927390</v>
+      </c>
+      <c r="F23" s="13">
+        <v>30617166</v>
+      </c>
+      <c r="G23" s="13">
+        <v>47340814</v>
+      </c>
+      <c r="H23" s="13">
+        <v>32509944</v>
+      </c>
+      <c r="I23" s="13">
+        <v>72539494</v>
+      </c>
+      <c r="J23" s="13">
         <v>57338149</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>110911790</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>81792595</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>80341446</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>82044679</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1160,8 +1440,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1170,8 +1455,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1180,10 +1470,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1202,8 +1497,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1212,37 +1522,57 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
@@ -1260,17 +1590,32 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>0</v>
+      <c r="E31" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F31" s="9">
         <v>0</v>
@@ -1284,13 +1629,28 @@
       <c r="I31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1308,37 +1668,67 @@
       <c r="I32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
@@ -1356,61 +1746,106 @@
       <c r="I34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0</v>
+      <c r="E35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
+      <c r="F36" s="11">
+        <v>0</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
@@ -1428,58 +1863,103 @@
       <c r="I37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>26</v>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -1498,8 +1978,23 @@
       <c r="I40" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1508,8 +2003,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1518,8 +2018,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1528,10 +2033,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1550,8 +2060,23 @@
       <c r="I44" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1560,233 +2085,373 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>26949</v>
+      </c>
+      <c r="F47" s="11">
+        <v>-19264</v>
+      </c>
+      <c r="G47" s="11">
+        <v>3744</v>
+      </c>
+      <c r="H47" s="11">
+        <v>4709</v>
+      </c>
+      <c r="I47" s="11">
+        <v>5672</v>
+      </c>
+      <c r="J47" s="11">
         <v>7147</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>11057</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>3108</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>5600</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>6576</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9">
+      <c r="E48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="9">
+        <v>-1098</v>
+      </c>
+      <c r="G48" s="9">
+        <v>4819</v>
+      </c>
+      <c r="H48" s="9">
+        <v>9204</v>
+      </c>
+      <c r="I48" s="9">
+        <v>14159</v>
+      </c>
+      <c r="J48" s="9">
         <v>9482</v>
       </c>
-      <c r="F48" s="9">
+      <c r="K48" s="9">
         <v>2048</v>
       </c>
-      <c r="G48" s="9">
+      <c r="L48" s="9">
         <v>11400</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>11936</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>16666</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>15892</v>
+      </c>
+      <c r="F49" s="11">
+        <v>26200</v>
+      </c>
+      <c r="G49" s="11">
+        <v>-1914</v>
+      </c>
+      <c r="H49" s="11">
+        <v>15770</v>
+      </c>
+      <c r="I49" s="11">
+        <v>13645</v>
+      </c>
+      <c r="J49" s="11">
         <v>21321</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>12097</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>12550</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>16853</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>12294</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>37192</v>
+      </c>
+      <c r="F51" s="11">
+        <v>40604</v>
+      </c>
+      <c r="G51" s="11">
+        <v>47375</v>
+      </c>
+      <c r="H51" s="11">
+        <v>29990</v>
+      </c>
+      <c r="I51" s="11">
+        <v>31769</v>
+      </c>
+      <c r="J51" s="11">
         <v>33507</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>19250</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>27779</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>28752</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>24481</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="E52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="9">
+        <v>4085</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
         <v>36000</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="9">
+      <c r="L52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="9">
         <v>14914</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>14863</v>
+      </c>
+      <c r="F53" s="11">
+        <v>11511</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="11">
+        <v>13599</v>
+      </c>
+      <c r="I53" s="11">
+        <v>14935</v>
+      </c>
+      <c r="J53" s="11">
         <v>15216</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="11">
+      <c r="K53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="11">
         <v>62604</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
+        <v>470</v>
+      </c>
+      <c r="F54" s="9">
+        <v>3622</v>
+      </c>
+      <c r="G54" s="9">
+        <v>946</v>
+      </c>
+      <c r="H54" s="9">
+        <v>2967</v>
+      </c>
+      <c r="I54" s="9">
+        <v>2491</v>
+      </c>
+      <c r="J54" s="9">
         <v>2007</v>
       </c>
-      <c r="F54" s="9">
+      <c r="K54" s="9">
         <v>4217</v>
       </c>
-      <c r="G54" s="9">
+      <c r="L54" s="9">
         <v>1036</v>
       </c>
-      <c r="H54" s="9">
+      <c r="M54" s="9">
         <v>226</v>
       </c>
-      <c r="I54" s="9">
+      <c r="N54" s="9">
         <v>1152</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>26</v>
+      <c r="E55" s="11">
+        <v>0</v>
       </c>
       <c r="F55" s="11">
         <v>0</v>
@@ -1794,60 +2459,105 @@
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="9">
-        <v>13622</v>
+        <v>25</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G56" s="9">
+        <v>55765</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="9">
+        <v>57372</v>
+      </c>
+      <c r="L56" s="9">
         <v>23190</v>
       </c>
-      <c r="H56" s="9">
+      <c r="M56" s="9">
         <v>23153</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N56" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
+        <v>95366</v>
+      </c>
+      <c r="F57" s="13">
+        <v>61575</v>
+      </c>
+      <c r="G57" s="13">
+        <v>110735</v>
+      </c>
+      <c r="H57" s="13">
+        <v>76239</v>
+      </c>
+      <c r="I57" s="13">
+        <v>86756</v>
+      </c>
+      <c r="J57" s="13">
         <v>88680</v>
       </c>
-      <c r="F57" s="13">
-        <v>98291</v>
-      </c>
-      <c r="G57" s="13">
+      <c r="K57" s="13">
+        <v>142041</v>
+      </c>
+      <c r="L57" s="13">
         <v>79063</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>86520</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>138687</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1856,8 +2566,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1866,8 +2581,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1876,10 +2596,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1898,8 +2623,23 @@
       <c r="I61" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1908,233 +2648,373 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="9">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>26949</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-19264</v>
+      </c>
+      <c r="G64" s="11">
+        <v>3744</v>
+      </c>
+      <c r="H64" s="11">
+        <v>4709</v>
+      </c>
+      <c r="I64" s="11">
+        <v>5672</v>
+      </c>
+      <c r="J64" s="11">
         <v>7147</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>11057</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>3108</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>5600</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>6576</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9">
+      <c r="E65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="9">
+        <v>-1098</v>
+      </c>
+      <c r="G65" s="9">
+        <v>4819</v>
+      </c>
+      <c r="H65" s="9">
+        <v>9204</v>
+      </c>
+      <c r="I65" s="9">
+        <v>14159</v>
+      </c>
+      <c r="J65" s="9">
         <v>9482</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>2048</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>11400</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>11936</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>16666</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>15892</v>
+      </c>
+      <c r="F66" s="11">
+        <v>26200</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-1914</v>
+      </c>
+      <c r="H66" s="11">
+        <v>15770</v>
+      </c>
+      <c r="I66" s="11">
+        <v>13645</v>
+      </c>
+      <c r="J66" s="11">
         <v>21321</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>12097</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>12550</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>16853</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>12294</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>37192</v>
+      </c>
+      <c r="F68" s="11">
+        <v>40604</v>
+      </c>
+      <c r="G68" s="11">
+        <v>47375</v>
+      </c>
+      <c r="H68" s="11">
+        <v>29990</v>
+      </c>
+      <c r="I68" s="11">
+        <v>31769</v>
+      </c>
+      <c r="J68" s="11">
         <v>33507</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>19250</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>27779</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>28752</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>24481</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
+      <c r="E69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="9">
+        <v>4085</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9">
         <v>36000</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="9">
+      <c r="L69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="9">
         <v>14914</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>14863</v>
+      </c>
+      <c r="F70" s="11">
+        <v>11511</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" s="11">
+        <v>13599</v>
+      </c>
+      <c r="I70" s="11">
+        <v>14935</v>
+      </c>
+      <c r="J70" s="11">
         <v>15216</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="11">
+      <c r="K70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="11">
         <v>62604</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>470</v>
+      </c>
+      <c r="F71" s="9">
+        <v>3622</v>
+      </c>
+      <c r="G71" s="9">
+        <v>946</v>
+      </c>
+      <c r="H71" s="9">
+        <v>2967</v>
+      </c>
+      <c r="I71" s="9">
+        <v>2491</v>
+      </c>
+      <c r="J71" s="9">
         <v>2007</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>4217</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>1036</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>226</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>1152</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>26</v>
+      <c r="E72" s="11">
+        <v>0</v>
       </c>
       <c r="F72" s="11">
         <v>0</v>
@@ -2142,60 +3022,105 @@
       <c r="G72" s="11">
         <v>0</v>
       </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="9">
-        <v>13622</v>
+        <v>25</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G73" s="9">
+        <v>55765</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="9">
+        <v>57372</v>
+      </c>
+      <c r="L73" s="9">
         <v>23190</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>23153</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>95366</v>
+      </c>
+      <c r="F74" s="13">
+        <v>61575</v>
+      </c>
+      <c r="G74" s="13">
+        <v>110735</v>
+      </c>
+      <c r="H74" s="13">
+        <v>76239</v>
+      </c>
+      <c r="I74" s="13">
+        <v>86756</v>
+      </c>
+      <c r="J74" s="13">
         <v>88680</v>
       </c>
-      <c r="F74" s="13">
-        <v>98291</v>
-      </c>
-      <c r="G74" s="13">
+      <c r="K74" s="13">
+        <v>142041</v>
+      </c>
+      <c r="L74" s="13">
         <v>79063</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>86520</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>138687</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2204,8 +3129,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2214,8 +3144,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2224,10 +3159,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2246,8 +3186,23 @@
       <c r="I78" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2256,37 +3211,57 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="9">
+        <v>0</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -2304,17 +3279,32 @@
       <c r="I81" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11">
+        <v>0</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9">
-        <v>0</v>
+      <c r="E82" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -2328,13 +3318,28 @@
       <c r="I82" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="9">
+        <v>0</v>
+      </c>
+      <c r="K82" s="9">
+        <v>0</v>
+      </c>
+      <c r="L82" s="9">
+        <v>0</v>
+      </c>
+      <c r="M82" s="9">
+        <v>0</v>
+      </c>
+      <c r="N82" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -2352,37 +3357,67 @@
       <c r="I83" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11">
+        <v>0</v>
+      </c>
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -2400,61 +3435,106 @@
       <c r="I85" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
-        <v>0</v>
+      <c r="E86" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="9">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9">
+        <v>0</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
         <v>0</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>26</v>
+      <c r="F87" s="11">
+        <v>0</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
       </c>
       <c r="I87" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="11">
+        <v>0</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
@@ -2472,17 +3552,32 @@
       <c r="I88" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="9">
+        <v>0</v>
+      </c>
+      <c r="K88" s="9">
+        <v>0</v>
+      </c>
+      <c r="L88" s="9">
+        <v>0</v>
+      </c>
+      <c r="M88" s="9">
+        <v>0</v>
+      </c>
+      <c r="N88" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>26</v>
+      <c r="E89" s="11">
+        <v>0</v>
       </c>
       <c r="F89" s="11">
         <v>0</v>
@@ -2490,40 +3585,70 @@
       <c r="G89" s="11">
         <v>0</v>
       </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11">
+        <v>0</v>
+      </c>
+      <c r="M89" s="11">
+        <v>0</v>
+      </c>
+      <c r="N89" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G90" s="9">
         <v>0</v>
       </c>
-      <c r="H90" s="9">
-        <v>0</v>
+      <c r="H90" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="9">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9">
+        <v>0</v>
+      </c>
+      <c r="M90" s="9">
+        <v>0</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -2542,8 +3667,23 @@
       <c r="I91" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="13">
+        <v>0</v>
+      </c>
+      <c r="K91" s="13">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>0</v>
+      </c>
+      <c r="M91" s="13">
+        <v>0</v>
+      </c>
+      <c r="N91" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2552,8 +3692,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2562,8 +3707,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2572,10 +3722,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2594,8 +3749,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2604,37 +3774,57 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
@@ -2652,17 +3842,32 @@
       <c r="I98" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11">
+        <v>0</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9">
-        <v>0</v>
+      <c r="E99" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F99" s="9">
         <v>0</v>
@@ -2676,13 +3881,28 @@
       <c r="I99" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9">
+        <v>0</v>
+      </c>
+      <c r="L99" s="9">
+        <v>0</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0</v>
+      </c>
+      <c r="N99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
@@ -2700,37 +3920,67 @@
       <c r="I100" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11">
+        <v>0</v>
+      </c>
+      <c r="L100" s="11">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11">
+        <v>0</v>
+      </c>
+      <c r="N100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
@@ -2748,61 +3998,106 @@
       <c r="I102" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="11">
+        <v>0</v>
+      </c>
+      <c r="K102" s="11">
+        <v>0</v>
+      </c>
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
+        <v>0</v>
+      </c>
+      <c r="N102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
-        <v>0</v>
-      </c>
-      <c r="F103" s="9">
-        <v>0</v>
+      <c r="E103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9">
+        <v>0</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <v>0</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>26</v>
+      <c r="F104" s="11">
+        <v>0</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
+        <v>0</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
@@ -2820,58 +4115,103 @@
       <c r="I105" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9">
+        <v>0</v>
+      </c>
+      <c r="L105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
+        <v>0</v>
+      </c>
+      <c r="N105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C106" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>0</v>
+      </c>
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L106" s="11">
+        <v>0</v>
+      </c>
+      <c r="M106" s="11">
+        <v>0</v>
+      </c>
+      <c r="N106" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="11">
-        <v>0</v>
-      </c>
-      <c r="H106" s="11">
-        <v>0</v>
-      </c>
-      <c r="I106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C107" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="9">
-        <v>0</v>
-      </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -2890,8 +4230,23 @@
       <c r="I108" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="13">
+        <v>0</v>
+      </c>
+      <c r="L108" s="13">
+        <v>0</v>
+      </c>
+      <c r="M108" s="13">
+        <v>0</v>
+      </c>
+      <c r="N108" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2900,8 +4255,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2910,8 +4270,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2920,10 +4285,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2942,8 +4312,23 @@
       <c r="I112" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2952,294 +4337,479 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="9">
+        <v>0</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
+        <v>29667</v>
+      </c>
+      <c r="F115" s="11">
+        <v>-23184</v>
+      </c>
+      <c r="G115" s="11">
+        <v>3502</v>
+      </c>
+      <c r="H115" s="11">
+        <v>4712</v>
+      </c>
+      <c r="I115" s="11">
+        <v>8762</v>
+      </c>
+      <c r="J115" s="11">
         <v>9548</v>
       </c>
-      <c r="F115" s="11">
+      <c r="K115" s="11">
         <v>12189</v>
       </c>
-      <c r="G115" s="11">
+      <c r="L115" s="11">
         <v>5357</v>
       </c>
-      <c r="H115" s="11">
+      <c r="M115" s="11">
         <v>12854</v>
       </c>
-      <c r="I115" s="11">
+      <c r="N115" s="11">
         <v>13252</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D116" s="9"/>
-      <c r="E116" s="9">
+      <c r="E116" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="9">
+        <v>7746</v>
+      </c>
+      <c r="G116" s="9">
+        <v>8369</v>
+      </c>
+      <c r="H116" s="9">
+        <v>14462</v>
+      </c>
+      <c r="I116" s="9">
+        <v>32244</v>
+      </c>
+      <c r="J116" s="9">
         <v>22444</v>
       </c>
-      <c r="F116" s="9">
+      <c r="K116" s="9">
         <v>5109</v>
       </c>
-      <c r="G116" s="9">
+      <c r="L116" s="9">
         <v>26840</v>
       </c>
-      <c r="H116" s="9">
+      <c r="M116" s="9">
         <v>33877</v>
       </c>
-      <c r="I116" s="9">
+      <c r="N116" s="9">
         <v>38644</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>32296</v>
+      </c>
+      <c r="F117" s="11">
+        <v>61642</v>
+      </c>
+      <c r="G117" s="11">
+        <v>-4043</v>
+      </c>
+      <c r="H117" s="11">
+        <v>39821</v>
+      </c>
+      <c r="I117" s="11">
+        <v>47690</v>
+      </c>
+      <c r="J117" s="11">
         <v>85425</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>40596</v>
       </c>
-      <c r="G117" s="11">
+      <c r="L117" s="11">
         <v>50706</v>
       </c>
-      <c r="H117" s="11">
+      <c r="M117" s="11">
         <v>82739</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>66865</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>42178</v>
+      </c>
+      <c r="F119" s="11">
+        <v>53579</v>
+      </c>
+      <c r="G119" s="11">
+        <v>76975</v>
+      </c>
+      <c r="H119" s="11">
+        <v>43170</v>
+      </c>
+      <c r="I119" s="11">
+        <v>67785</v>
+      </c>
+      <c r="J119" s="11">
         <v>69644</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>32647</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>56266</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>66686</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>74640</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="9">
-        <v>0</v>
+      <c r="E120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I120" s="9">
+        <v>1665</v>
+      </c>
+      <c r="J120" s="9">
+        <v>0</v>
+      </c>
+      <c r="K120" s="9">
+        <v>0</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" s="9">
         <v>9975</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>2060785</v>
+      </c>
+      <c r="F121" s="11">
+        <v>2421644</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="11">
+        <v>5235856</v>
+      </c>
+      <c r="I121" s="11">
+        <v>4952966</v>
+      </c>
+      <c r="J121" s="11">
         <v>5753502</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I121" s="11">
+      <c r="K121" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N121" s="11">
         <v>23469673</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>504181</v>
+      </c>
+      <c r="F122" s="9">
+        <v>4060599</v>
+      </c>
+      <c r="G122" s="9">
+        <v>4235734</v>
+      </c>
+      <c r="H122" s="9">
+        <v>5918699</v>
+      </c>
+      <c r="I122" s="9">
+        <v>5275843</v>
+      </c>
+      <c r="J122" s="9">
         <v>4293730</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>9893667</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>2422552</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>502991</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>2201508</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C123" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11">
+        <v>239427</v>
+      </c>
+      <c r="F123" s="11">
+        <v>356190</v>
+      </c>
+      <c r="G123" s="11">
+        <v>995435</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K123" s="11">
+        <v>0</v>
+      </c>
+      <c r="L123" s="11">
+        <v>0</v>
+      </c>
+      <c r="M123" s="11">
+        <v>0</v>
+      </c>
+      <c r="N123" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="11">
-        <v>0</v>
-      </c>
-      <c r="G123" s="11">
-        <v>0</v>
-      </c>
-      <c r="H123" s="11">
-        <v>0</v>
-      </c>
-      <c r="I123" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B124" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C124" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F124" s="9">
-        <v>5877898</v>
+        <v>25</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G124" s="9">
+        <v>12199690</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K124" s="9">
+        <v>21820222</v>
+      </c>
+      <c r="L124" s="9">
         <v>11343747</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>6942678</v>
       </c>
-      <c r="I124" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N124" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
+        <v>2908534</v>
+      </c>
+      <c r="F125" s="13">
+        <v>6938216</v>
+      </c>
+      <c r="G125" s="13">
+        <v>17515662</v>
+      </c>
+      <c r="H125" s="13">
+        <v>11256720</v>
+      </c>
+      <c r="I125" s="13">
+        <v>10386955</v>
+      </c>
+      <c r="J125" s="13">
         <v>10234293</v>
       </c>
-      <c r="F125" s="13">
-        <v>15862106</v>
-      </c>
-      <c r="G125" s="13">
+      <c r="K125" s="13">
+        <v>31804430</v>
+      </c>
+      <c r="L125" s="13">
         <v>13905468</v>
       </c>
-      <c r="H125" s="13">
+      <c r="M125" s="13">
         <v>7641825</v>
       </c>
-      <c r="I125" s="13">
+      <c r="N125" s="13">
         <v>25874557</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3248,8 +4818,13 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3258,8 +4833,13 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3268,10 +4848,15 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3290,8 +4875,23 @@
       <c r="I129" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3300,294 +4900,479 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131" s="9">
+        <v>0</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
+        <v>29667</v>
+      </c>
+      <c r="F132" s="11">
+        <v>-23184</v>
+      </c>
+      <c r="G132" s="11">
+        <v>3502</v>
+      </c>
+      <c r="H132" s="11">
+        <v>4712</v>
+      </c>
+      <c r="I132" s="11">
+        <v>8762</v>
+      </c>
+      <c r="J132" s="11">
         <v>9548</v>
       </c>
-      <c r="F132" s="11">
+      <c r="K132" s="11">
         <v>12189</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>5357</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>12854</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>13252</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9">
+      <c r="E133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="9">
+        <v>7746</v>
+      </c>
+      <c r="G133" s="9">
+        <v>8369</v>
+      </c>
+      <c r="H133" s="9">
+        <v>14462</v>
+      </c>
+      <c r="I133" s="9">
+        <v>32244</v>
+      </c>
+      <c r="J133" s="9">
         <v>22444</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>5109</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>26840</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>33877</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>38644</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>32296</v>
+      </c>
+      <c r="F134" s="11">
+        <v>61642</v>
+      </c>
+      <c r="G134" s="11">
+        <v>-4043</v>
+      </c>
+      <c r="H134" s="11">
+        <v>39821</v>
+      </c>
+      <c r="I134" s="11">
+        <v>47690</v>
+      </c>
+      <c r="J134" s="11">
         <v>85425</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>40596</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>50706</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>82739</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>66865</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>42178</v>
+      </c>
+      <c r="F136" s="11">
+        <v>53579</v>
+      </c>
+      <c r="G136" s="11">
+        <v>76975</v>
+      </c>
+      <c r="H136" s="11">
+        <v>43170</v>
+      </c>
+      <c r="I136" s="11">
+        <v>67785</v>
+      </c>
+      <c r="J136" s="11">
         <v>69644</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>32647</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>56266</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>66686</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>74640</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9">
-        <v>0</v>
-      </c>
-      <c r="F137" s="9">
-        <v>0</v>
+      <c r="E137" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I137" s="9">
+        <v>1665</v>
+      </c>
+      <c r="J137" s="9">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M137" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N137" s="9">
         <v>9975</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>2060785</v>
+      </c>
+      <c r="F138" s="11">
+        <v>2421644</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="11">
+        <v>5235856</v>
+      </c>
+      <c r="I138" s="11">
+        <v>4952966</v>
+      </c>
+      <c r="J138" s="11">
         <v>5753502</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I138" s="11">
+      <c r="K138" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" s="11">
         <v>23469673</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>504181</v>
+      </c>
+      <c r="F139" s="9">
+        <v>4060599</v>
+      </c>
+      <c r="G139" s="9">
+        <v>4235734</v>
+      </c>
+      <c r="H139" s="9">
+        <v>5918699</v>
+      </c>
+      <c r="I139" s="9">
+        <v>5275843</v>
+      </c>
+      <c r="J139" s="9">
         <v>4293730</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>9893667</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>2422552</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>502991</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>2201508</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C140" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11">
+        <v>239427</v>
+      </c>
+      <c r="F140" s="11">
+        <v>356190</v>
+      </c>
+      <c r="G140" s="11">
+        <v>995435</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K140" s="11">
+        <v>0</v>
+      </c>
+      <c r="L140" s="11">
+        <v>0</v>
+      </c>
+      <c r="M140" s="11">
+        <v>0</v>
+      </c>
+      <c r="N140" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="11">
-        <v>0</v>
-      </c>
-      <c r="G140" s="11">
-        <v>0</v>
-      </c>
-      <c r="H140" s="11">
-        <v>0</v>
-      </c>
-      <c r="I140" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B141" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C141" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F141" s="9">
-        <v>5877898</v>
+        <v>25</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G141" s="9">
+        <v>12199690</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K141" s="9">
+        <v>21820222</v>
+      </c>
+      <c r="L141" s="9">
         <v>11343747</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>6942678</v>
       </c>
-      <c r="I141" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N141" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
+        <v>2908534</v>
+      </c>
+      <c r="F142" s="13">
+        <v>6938216</v>
+      </c>
+      <c r="G142" s="13">
+        <v>17515662</v>
+      </c>
+      <c r="H142" s="13">
+        <v>11256720</v>
+      </c>
+      <c r="I142" s="13">
+        <v>10386955</v>
+      </c>
+      <c r="J142" s="13">
         <v>10234293</v>
       </c>
-      <c r="F142" s="13">
-        <v>15862106</v>
-      </c>
-      <c r="G142" s="13">
+      <c r="K142" s="13">
+        <v>31804430</v>
+      </c>
+      <c r="L142" s="13">
         <v>13905468</v>
       </c>
-      <c r="H142" s="13">
+      <c r="M142" s="13">
         <v>7641825</v>
       </c>
-      <c r="I142" s="13">
+      <c r="N142" s="13">
         <v>25874557</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3596,8 +5381,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3606,8 +5396,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3616,10 +5411,15 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3638,8 +5438,23 @@
       <c r="I146" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3648,37 +5463,57 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F148" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K148" s="9">
+        <v>0</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
@@ -3696,17 +5531,32 @@
       <c r="I149" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="11">
+        <v>0</v>
+      </c>
+      <c r="K149" s="11">
+        <v>0</v>
+      </c>
+      <c r="L149" s="11">
+        <v>0</v>
+      </c>
+      <c r="M149" s="11">
+        <v>0</v>
+      </c>
+      <c r="N149" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D150" s="9"/>
-      <c r="E150" s="9">
-        <v>0</v>
+      <c r="E150" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F150" s="9">
         <v>0</v>
@@ -3720,13 +5570,28 @@
       <c r="I150" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="9">
+        <v>0</v>
+      </c>
+      <c r="K150" s="9">
+        <v>0</v>
+      </c>
+      <c r="L150" s="9">
+        <v>0</v>
+      </c>
+      <c r="M150" s="9">
+        <v>0</v>
+      </c>
+      <c r="N150" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
@@ -3744,37 +5609,67 @@
       <c r="I151" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="11">
+        <v>0</v>
+      </c>
+      <c r="K151" s="11">
+        <v>0</v>
+      </c>
+      <c r="L151" s="11">
+        <v>0</v>
+      </c>
+      <c r="M151" s="11">
+        <v>0</v>
+      </c>
+      <c r="N151" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N152" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
@@ -3792,61 +5687,106 @@
       <c r="I153" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="11">
+        <v>0</v>
+      </c>
+      <c r="K153" s="11">
+        <v>0</v>
+      </c>
+      <c r="L153" s="11">
+        <v>0</v>
+      </c>
+      <c r="M153" s="11">
+        <v>0</v>
+      </c>
+      <c r="N153" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9">
-        <v>0</v>
-      </c>
-      <c r="F154" s="9">
-        <v>0</v>
+      <c r="E154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I154" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="9">
+        <v>0</v>
+      </c>
+      <c r="K154" s="9">
+        <v>0</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N154" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
         <v>0</v>
       </c>
-      <c r="F155" s="11" t="s">
-        <v>26</v>
+      <c r="F155" s="11">
+        <v>0</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H155" s="11">
+        <v>0</v>
       </c>
       <c r="I155" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="11">
+        <v>0</v>
+      </c>
+      <c r="K155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N155" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
@@ -3864,58 +5804,103 @@
       <c r="I156" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="9">
+        <v>0</v>
+      </c>
+      <c r="K156" s="9">
+        <v>0</v>
+      </c>
+      <c r="L156" s="9">
+        <v>0</v>
+      </c>
+      <c r="M156" s="9">
+        <v>0</v>
+      </c>
+      <c r="N156" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C157" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11">
+        <v>0</v>
+      </c>
+      <c r="F157" s="11">
+        <v>0</v>
+      </c>
+      <c r="G157" s="11">
+        <v>0</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K157" s="11">
+        <v>0</v>
+      </c>
+      <c r="L157" s="11">
+        <v>0</v>
+      </c>
+      <c r="M157" s="11">
+        <v>0</v>
+      </c>
+      <c r="N157" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="11">
-        <v>0</v>
-      </c>
-      <c r="G157" s="11">
-        <v>0</v>
-      </c>
-      <c r="H157" s="11">
-        <v>0</v>
-      </c>
-      <c r="I157" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B158" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C158" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G158" s="9">
         <v>0</v>
       </c>
-      <c r="H158" s="9">
-        <v>0</v>
+      <c r="H158" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K158" s="9">
+        <v>0</v>
+      </c>
+      <c r="L158" s="9">
+        <v>0</v>
+      </c>
+      <c r="M158" s="9">
+        <v>0</v>
+      </c>
+      <c r="N158" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
@@ -3934,8 +5919,23 @@
       <c r="I159" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="13">
+        <v>0</v>
+      </c>
+      <c r="K159" s="13">
+        <v>0</v>
+      </c>
+      <c r="L159" s="13">
+        <v>0</v>
+      </c>
+      <c r="M159" s="13">
+        <v>0</v>
+      </c>
+      <c r="N159" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3944,8 +5944,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3954,8 +5959,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3964,10 +5974,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3986,8 +6001,23 @@
       <c r="I163" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3996,272 +6026,442 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N165" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>1100857</v>
+      </c>
+      <c r="F166" s="11">
+        <v>1203488</v>
+      </c>
+      <c r="G166" s="11">
+        <v>935363</v>
+      </c>
+      <c r="H166" s="11">
+        <v>1000637</v>
+      </c>
+      <c r="I166" s="11">
+        <v>1544781</v>
+      </c>
+      <c r="J166" s="11">
         <v>1335945</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>1102379</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>1723616</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>2295357</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>2015207</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D167" s="9"/>
-      <c r="E167" s="9">
+      <c r="E167" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" s="9">
+        <v>-7054645</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1736667</v>
+      </c>
+      <c r="H167" s="9">
+        <v>1571273</v>
+      </c>
+      <c r="I167" s="9">
+        <v>2277279</v>
+      </c>
+      <c r="J167" s="9">
         <v>2367011</v>
       </c>
-      <c r="F167" s="9">
+      <c r="K167" s="9">
         <v>2494629</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>2354386</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>2838221</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>2318733</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>2032217</v>
+      </c>
+      <c r="F168" s="11">
+        <v>2352748</v>
+      </c>
+      <c r="G168" s="11">
+        <v>2112330</v>
+      </c>
+      <c r="H168" s="11">
+        <v>2525111</v>
+      </c>
+      <c r="I168" s="11">
+        <v>3495053</v>
+      </c>
+      <c r="J168" s="11">
         <v>4006613</v>
       </c>
-      <c r="F168" s="11">
+      <c r="K168" s="11">
         <v>3355873</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>4040319</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>4909452</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>5438832</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N169" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>1134061</v>
+      </c>
+      <c r="F170" s="11">
+        <v>1319550</v>
+      </c>
+      <c r="G170" s="11">
+        <v>1624802</v>
+      </c>
+      <c r="H170" s="11">
+        <v>1439480</v>
+      </c>
+      <c r="I170" s="11">
+        <v>2133684</v>
+      </c>
+      <c r="J170" s="11">
         <v>2078491</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>1695948</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>2025487</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>2319352</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>3048895</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I171" s="9">
+        <v>407589</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K171" s="9">
+        <v>0</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N171" s="9">
         <v>668835</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
+        <v>138652022</v>
+      </c>
+      <c r="F172" s="11">
+        <v>210376509</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H172" s="11">
+        <v>385017722</v>
+      </c>
+      <c r="I172" s="11">
+        <v>331634818</v>
+      </c>
+      <c r="J172" s="11">
         <v>378121845</v>
       </c>
-      <c r="F172" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I172" s="11">
+      <c r="K172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N172" s="11">
         <v>374890949</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
+        <v>1072725532</v>
+      </c>
+      <c r="F173" s="9">
+        <v>1121093043</v>
+      </c>
+      <c r="G173" s="9">
+        <v>4477520085</v>
+      </c>
+      <c r="H173" s="9">
+        <v>1994842939</v>
+      </c>
+      <c r="I173" s="9">
+        <v>2117961863</v>
+      </c>
+      <c r="J173" s="9">
         <v>2139377180</v>
       </c>
-      <c r="F173" s="9">
+      <c r="K173" s="9">
         <v>2346138724</v>
       </c>
-      <c r="G173" s="9">
+      <c r="L173" s="9">
         <v>2338370656</v>
       </c>
-      <c r="H173" s="9">
+      <c r="M173" s="9">
         <v>2225623894</v>
       </c>
-      <c r="I173" s="9">
+      <c r="N173" s="9">
         <v>1911031250</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F175" s="9">
-        <v>431500367</v>
+        <v>25</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G175" s="9">
+        <v>218769658</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K175" s="9">
+        <v>380328767</v>
+      </c>
+      <c r="L175" s="9">
         <v>489165459</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>299860839</v>
       </c>
-      <c r="I175" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N175" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4270,8 +6470,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4280,8 +6485,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4290,10 +6500,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4312,8 +6527,23 @@
       <c r="I179" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N179" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4322,272 +6552,442 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N181" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
+        <v>1100857</v>
+      </c>
+      <c r="F182" s="11">
+        <v>1203488</v>
+      </c>
+      <c r="G182" s="11">
+        <v>935363</v>
+      </c>
+      <c r="H182" s="11">
+        <v>1000637</v>
+      </c>
+      <c r="I182" s="11">
+        <v>1544781</v>
+      </c>
+      <c r="J182" s="11">
         <v>1335945</v>
       </c>
-      <c r="F182" s="11">
+      <c r="K182" s="11">
         <v>1102379</v>
       </c>
-      <c r="G182" s="11">
+      <c r="L182" s="11">
         <v>1723616</v>
       </c>
-      <c r="H182" s="11">
+      <c r="M182" s="11">
         <v>2295357</v>
       </c>
-      <c r="I182" s="11">
+      <c r="N182" s="11">
         <v>2015207</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D183" s="9"/>
-      <c r="E183" s="9">
+      <c r="E183" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="9">
+        <v>-7054645</v>
+      </c>
+      <c r="G183" s="9">
+        <v>1736667</v>
+      </c>
+      <c r="H183" s="9">
+        <v>1571273</v>
+      </c>
+      <c r="I183" s="9">
+        <v>2277279</v>
+      </c>
+      <c r="J183" s="9">
         <v>2367011</v>
       </c>
-      <c r="F183" s="9">
+      <c r="K183" s="9">
         <v>2494629</v>
       </c>
-      <c r="G183" s="9">
+      <c r="L183" s="9">
         <v>2354386</v>
       </c>
-      <c r="H183" s="9">
+      <c r="M183" s="9">
         <v>2838221</v>
       </c>
-      <c r="I183" s="9">
+      <c r="N183" s="9">
         <v>2318733</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
+        <v>2032217</v>
+      </c>
+      <c r="F184" s="11">
+        <v>2352748</v>
+      </c>
+      <c r="G184" s="11">
+        <v>2112330</v>
+      </c>
+      <c r="H184" s="11">
+        <v>2525111</v>
+      </c>
+      <c r="I184" s="11">
+        <v>3495053</v>
+      </c>
+      <c r="J184" s="11">
         <v>4006613</v>
       </c>
-      <c r="F184" s="11">
+      <c r="K184" s="11">
         <v>3355873</v>
       </c>
-      <c r="G184" s="11">
+      <c r="L184" s="11">
         <v>4040319</v>
       </c>
-      <c r="H184" s="11">
+      <c r="M184" s="11">
         <v>4909452</v>
       </c>
-      <c r="I184" s="11">
+      <c r="N184" s="11">
         <v>5438832</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N185" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
+        <v>1134061</v>
+      </c>
+      <c r="F186" s="11">
+        <v>1319550</v>
+      </c>
+      <c r="G186" s="11">
+        <v>1624802</v>
+      </c>
+      <c r="H186" s="11">
+        <v>1439480</v>
+      </c>
+      <c r="I186" s="11">
+        <v>2133684</v>
+      </c>
+      <c r="J186" s="11">
         <v>2078491</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>1695948</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>2025487</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>2319352</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>3048895</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I187" s="9">
+        <v>407589</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K187" s="9">
+        <v>0</v>
+      </c>
+      <c r="L187" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M187" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N187" s="9">
         <v>668835</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
+        <v>138652022</v>
+      </c>
+      <c r="F188" s="11">
+        <v>210376509</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" s="11">
+        <v>385017722</v>
+      </c>
+      <c r="I188" s="11">
+        <v>331634818</v>
+      </c>
+      <c r="J188" s="11">
         <v>378121845</v>
       </c>
-      <c r="F188" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H188" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I188" s="11">
+      <c r="K188" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L188" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M188" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N188" s="11">
         <v>374890949</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9">
+        <v>1072725532</v>
+      </c>
+      <c r="F189" s="9">
+        <v>1121093043</v>
+      </c>
+      <c r="G189" s="9">
+        <v>4477520085</v>
+      </c>
+      <c r="H189" s="9">
+        <v>1994842939</v>
+      </c>
+      <c r="I189" s="9">
+        <v>2117961863</v>
+      </c>
+      <c r="J189" s="9">
         <v>2139377180</v>
       </c>
-      <c r="F189" s="9">
+      <c r="K189" s="9">
         <v>2346138724</v>
       </c>
-      <c r="G189" s="9">
+      <c r="L189" s="9">
         <v>2338370656</v>
       </c>
-      <c r="H189" s="9">
+      <c r="M189" s="9">
         <v>2225623894</v>
       </c>
-      <c r="I189" s="9">
+      <c r="N189" s="9">
         <v>1911031250</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J190" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L190" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M190" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N190" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F191" s="9">
-        <v>431500367</v>
+        <v>25</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G191" s="9">
+        <v>218769658</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191" s="9">
+        <v>380328767</v>
+      </c>
+      <c r="L191" s="9">
         <v>489165459</v>
       </c>
-      <c r="H191" s="9">
+      <c r="M191" s="9">
         <v>299860839</v>
       </c>
-      <c r="I191" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N191" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4596,8 +6996,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4606,8 +7011,13 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4616,10 +7026,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4638,8 +7053,23 @@
       <c r="I195" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M195" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N195" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4648,32 +7078,52 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9">
+        <v>215400</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1860158</v>
+      </c>
+      <c r="G197" s="9">
+        <v>4109016</v>
+      </c>
+      <c r="H197" s="9">
+        <v>0</v>
+      </c>
+      <c r="I197" s="9">
+        <v>4359523</v>
+      </c>
+      <c r="J197" s="9">
         <v>2457203</v>
       </c>
-      <c r="F197" s="9">
+      <c r="K197" s="9">
         <v>4119488</v>
       </c>
-      <c r="G197" s="9">
+      <c r="L197" s="9">
         <v>3739447</v>
       </c>
-      <c r="H197" s="9">
+      <c r="M197" s="9">
         <v>2690614</v>
       </c>
-      <c r="I197" s="9">
+      <c r="N197" s="9">
         <v>6330173</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -4692,10 +7142,25 @@
       <c r="I198" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="11">
+        <v>0</v>
+      </c>
+      <c r="K198" s="11">
+        <v>0</v>
+      </c>
+      <c r="L198" s="11">
+        <v>0</v>
+      </c>
+      <c r="M198" s="11">
+        <v>0</v>
+      </c>
+      <c r="N198" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -4714,10 +7179,25 @@
       <c r="I199" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="9">
+        <v>0</v>
+      </c>
+      <c r="K199" s="9">
+        <v>0</v>
+      </c>
+      <c r="L199" s="9">
+        <v>0</v>
+      </c>
+      <c r="M199" s="9">
+        <v>0</v>
+      </c>
+      <c r="N199" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -4736,76 +7216,136 @@
       <c r="I200" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="11">
+        <v>0</v>
+      </c>
+      <c r="K200" s="11">
+        <v>0</v>
+      </c>
+      <c r="L200" s="11">
+        <v>0</v>
+      </c>
+      <c r="M200" s="11">
+        <v>0</v>
+      </c>
+      <c r="N200" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9">
+        <v>0</v>
+      </c>
+      <c r="F201" s="9">
+        <v>0</v>
+      </c>
+      <c r="G201" s="9">
+        <v>14612153</v>
+      </c>
+      <c r="H201" s="9">
+        <v>4342897</v>
+      </c>
+      <c r="I201" s="9">
+        <v>5690961</v>
+      </c>
+      <c r="J201" s="9">
         <v>4602478</v>
       </c>
-      <c r="F201" s="9">
+      <c r="K201" s="9">
         <v>8081229</v>
       </c>
-      <c r="G201" s="9">
+      <c r="L201" s="9">
         <v>6774678</v>
       </c>
-      <c r="H201" s="9">
+      <c r="M201" s="9">
         <v>9139073</v>
       </c>
-      <c r="I201" s="9">
+      <c r="N201" s="9">
         <v>10147364</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11">
+        <v>1473891</v>
+      </c>
+      <c r="F202" s="11">
+        <v>1380492</v>
+      </c>
+      <c r="G202" s="11">
+        <v>2166091</v>
+      </c>
+      <c r="H202" s="11">
+        <v>2900885</v>
+      </c>
+      <c r="I202" s="11">
+        <v>11512394</v>
+      </c>
+      <c r="J202" s="11">
         <v>4677079</v>
       </c>
-      <c r="F202" s="11">
+      <c r="K202" s="11">
         <v>11675755</v>
       </c>
-      <c r="G202" s="11">
+      <c r="L202" s="11">
         <v>8425078</v>
       </c>
-      <c r="H202" s="11">
+      <c r="M202" s="11">
         <v>10445819</v>
       </c>
-      <c r="I202" s="11">
+      <c r="N202" s="11">
         <v>9085178</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9">
+        <v>1142338</v>
+      </c>
+      <c r="F203" s="9">
+        <v>1137711</v>
+      </c>
+      <c r="G203" s="9">
+        <v>2675260</v>
+      </c>
+      <c r="H203" s="9">
+        <v>1600190</v>
+      </c>
+      <c r="I203" s="9">
+        <v>1629134</v>
+      </c>
+      <c r="J203" s="9">
         <v>1653942</v>
       </c>
-      <c r="F203" s="9">
+      <c r="K203" s="9">
         <v>1756259</v>
       </c>
-      <c r="G203" s="9">
+      <c r="L203" s="9">
         <v>1697907</v>
       </c>
-      <c r="H203" s="9">
+      <c r="M203" s="9">
         <v>2106466</v>
       </c>
-      <c r="I203" s="9">
+      <c r="N203" s="9">
         <v>2407856</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -4824,10 +7364,25 @@
       <c r="I204" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="11">
+        <v>0</v>
+      </c>
+      <c r="K204" s="11">
+        <v>0</v>
+      </c>
+      <c r="L204" s="11">
+        <v>0</v>
+      </c>
+      <c r="M204" s="11">
+        <v>0</v>
+      </c>
+      <c r="N204" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -4846,52 +7401,97 @@
       <c r="I205" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="9">
+        <v>0</v>
+      </c>
+      <c r="K205" s="9">
+        <v>0</v>
+      </c>
+      <c r="L205" s="9">
+        <v>0</v>
+      </c>
+      <c r="M205" s="9">
+        <v>0</v>
+      </c>
+      <c r="N205" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11">
+        <v>22120478</v>
+      </c>
+      <c r="F206" s="11">
+        <v>16207313</v>
+      </c>
+      <c r="G206" s="11">
+        <v>16417618</v>
+      </c>
+      <c r="H206" s="11">
+        <v>24228534</v>
+      </c>
+      <c r="I206" s="11">
+        <v>25993125</v>
+      </c>
+      <c r="J206" s="11">
         <v>19400523</v>
       </c>
-      <c r="F206" s="11">
+      <c r="K206" s="11">
         <v>50960437</v>
       </c>
-      <c r="G206" s="11">
+      <c r="L206" s="11">
         <v>37124253</v>
       </c>
-      <c r="H206" s="11">
+      <c r="M206" s="11">
         <v>33620778</v>
       </c>
-      <c r="I206" s="11">
+      <c r="N206" s="11">
         <v>41530028</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15">
+        <v>24952107</v>
+      </c>
+      <c r="F207" s="15">
+        <v>20585674</v>
+      </c>
+      <c r="G207" s="15">
+        <v>39980138</v>
+      </c>
+      <c r="H207" s="15">
+        <v>33072506</v>
+      </c>
+      <c r="I207" s="15">
+        <v>49185137</v>
+      </c>
+      <c r="J207" s="15">
         <v>32791225</v>
       </c>
-      <c r="F207" s="15">
+      <c r="K207" s="15">
         <v>76593168</v>
       </c>
-      <c r="G207" s="15">
+      <c r="L207" s="15">
         <v>57761363</v>
       </c>
-      <c r="H207" s="15">
+      <c r="M207" s="15">
         <v>58002750</v>
       </c>
-      <c r="I207" s="15">
+      <c r="N207" s="15">
         <v>69500599</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4900,8 +7500,13 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4910,8 +7515,13 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4920,10 +7530,15 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4932,8 +7547,13 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4942,13 +7562,18 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -4956,13 +7581,18 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
@@ -4970,13 +7600,18 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -4984,13 +7619,18 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
@@ -4998,101 +7638,106 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>

--- a/database/industries/felezat/fameli/cost/quarterly.xlsx
+++ b/database/industries/felezat/fameli/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8BDD5C-5D70-4EB9-B754-1C480D12125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00003389-6624-4C42-B615-CD2089CE0596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>آرسنیک</t>
+  </si>
+  <si>
+    <t>تن</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>آرسنیک</t>
-  </si>
-  <si>
-    <t>تن</t>
   </si>
   <si>
     <t>سیلیس درشت</t>
@@ -743,12 +743,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -763,7 +763,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -812,7 +812,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -861,7 +861,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -898,7 +898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -913,7 +913,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -950,7 +950,7 @@
         <v>7588132</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -987,7 +987,7 @@
         <v>23648383</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>69500599</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>100737114</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>-2267881</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>98469233</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>98469233</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>8360708</v>
+        <v>43604233</v>
       </c>
       <c r="H19" s="11">
         <v>48168093</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>2523887</v>
+        <v>64645810</v>
       </c>
       <c r="L19" s="11">
         <v>47314595</v>
@@ -1280,10 +1280,10 @@
         <v>57554474</v>
       </c>
       <c r="N19" s="11">
-        <v>47314595</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64662449</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1295,8 @@
       <c r="F20" s="9">
         <v>-8360708</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>25</v>
+      <c r="G20" s="9">
+        <v>-48168093</v>
       </c>
       <c r="H20" s="9">
         <v>-71122071</v>
@@ -1307,22 +1307,22 @@
       <c r="J20" s="9">
         <v>-2523887</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>25</v>
+      <c r="K20" s="9">
+        <v>-47314595</v>
       </c>
       <c r="L20" s="9">
         <v>-57554474</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="9">
+        <v>-64662449</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-81087003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1357,9 +1357,9 @@
         <v>82044679</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1394,9 +1394,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1431,7 +1431,7 @@
         <v>82044679</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1461,7 +1461,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1476,9 +1476,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1513,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1528,51 +1528,51 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
@@ -1606,16 +1606,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9">
         <v>0</v>
@@ -1645,12 +1645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1684,51 +1684,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
@@ -1762,28 +1762,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -1792,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H36" s="11">
         <v>0</v>
@@ -1828,24 +1828,24 @@
         <v>0</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
@@ -1879,12 +1879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L38" s="11">
         <v>0</v>
@@ -1918,34 +1918,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2009,7 +2009,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2024,7 +2024,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2039,7 +2039,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>42</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2091,51 +2091,51 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K46" s="9">
         <v>0</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
@@ -2169,16 +2169,16 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9">
         <v>-1098</v>
@@ -2208,12 +2208,12 @@
         <v>16666</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
@@ -2247,51 +2247,51 @@
         <v>12294</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
@@ -2325,25 +2325,25 @@
         <v>24481</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9">
         <v>4085</v>
@@ -2355,21 +2355,21 @@
         <v>36000</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N52" s="9">
         <v>14914</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
@@ -2379,7 +2379,7 @@
         <v>11511</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H53" s="11">
         <v>13599</v>
@@ -2391,24 +2391,24 @@
         <v>15216</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N53" s="11">
         <v>62604</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -2442,12 +2442,12 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -2460,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K55" s="11">
         <v>0</v>
@@ -2481,31 +2481,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G56" s="9">
         <v>55765</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K56" s="9">
         <v>57372</v>
@@ -2517,10 +2517,10 @@
         <v>23153</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>17</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>138687</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2572,7 +2572,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2587,7 +2587,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2602,7 +2602,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>43</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2654,51 +2654,51 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K63" s="9">
         <v>0</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
@@ -2732,16 +2732,16 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F65" s="9">
         <v>-1098</v>
@@ -2771,12 +2771,12 @@
         <v>16666</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
@@ -2810,51 +2810,51 @@
         <v>12294</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
@@ -2888,25 +2888,25 @@
         <v>24481</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9">
         <v>4085</v>
@@ -2918,21 +2918,21 @@
         <v>36000</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N69" s="9">
         <v>14914</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
@@ -2942,7 +2942,7 @@
         <v>11511</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H70" s="11">
         <v>13599</v>
@@ -2954,24 +2954,24 @@
         <v>15216</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N70" s="11">
         <v>62604</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
@@ -3005,12 +3005,12 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K72" s="11">
         <v>0</v>
@@ -3044,31 +3044,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G73" s="9">
         <v>55765</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K73" s="9">
         <v>57372</v>
@@ -3080,10 +3080,10 @@
         <v>23153</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>17</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>138687</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3135,7 +3135,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3150,7 +3150,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3165,7 +3165,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>44</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3217,51 +3217,51 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K80" s="9">
         <v>0</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -3334,12 +3334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -3373,51 +3373,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -3451,25 +3451,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9">
         <v>0</v>
@@ -3481,21 +3481,21 @@
         <v>0</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N86" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H87" s="11">
         <v>0</v>
@@ -3517,24 +3517,24 @@
         <v>0</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N87" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
@@ -3568,12 +3568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K89" s="11">
         <v>0</v>
@@ -3607,31 +3607,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G90" s="9">
         <v>0</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K90" s="9">
         <v>0</v>
@@ -3643,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3698,7 +3698,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3713,7 +3713,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3728,7 +3728,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>45</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3780,46 +3780,46 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>32</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>33</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F99" s="9">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>34</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>35</v>
       </c>
@@ -3945,37 +3945,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>36</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>37</v>
       </c>
@@ -4023,19 +4023,19 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J103" s="9">
         <v>0</v>
@@ -4044,16 +4044,16 @@
         <v>0</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>38</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H104" s="11">
         <v>0</v>
@@ -4080,19 +4080,19 @@
         <v>0</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>39</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>40</v>
       </c>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L106" s="11">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>41</v>
       </c>
@@ -4179,25 +4179,25 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L107" s="9">
         <v>0</v>
@@ -4206,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>17</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4261,7 +4261,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4276,7 +4276,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4291,7 +4291,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>47</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4343,46 +4343,46 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K114" s="9">
         <v>0</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>32</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>13252</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>33</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F116" s="9">
         <v>7746</v>
@@ -4460,7 +4460,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>34</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>66865</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>35</v>
       </c>
@@ -4508,37 +4508,37 @@
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>36</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>74640</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>37</v>
       </c>
@@ -4586,16 +4586,16 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I120" s="9">
         <v>1665</v>
@@ -4607,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N120" s="9">
         <v>9975</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>38</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>2421644</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H121" s="11">
         <v>5235856</v>
@@ -4643,19 +4643,19 @@
         <v>5753502</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L121" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N121" s="11">
         <v>23469673</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>39</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>2201508</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>40</v>
       </c>
@@ -4712,13 +4712,13 @@
         <v>995435</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K123" s="11">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>41</v>
       </c>
@@ -4742,22 +4742,22 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G124" s="9">
         <v>12199690</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K124" s="9">
         <v>21820222</v>
@@ -4769,10 +4769,10 @@
         <v>6942678</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>17</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>25874557</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4824,7 +4824,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4839,7 +4839,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4854,7 +4854,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>48</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4906,46 +4906,46 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K131" s="9">
         <v>0</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>32</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>13252</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>33</v>
       </c>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F133" s="9">
         <v>7746</v>
@@ -5023,7 +5023,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>34</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>66865</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>35</v>
       </c>
@@ -5071,37 +5071,37 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N135" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>36</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>74640</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>37</v>
       </c>
@@ -5149,16 +5149,16 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I137" s="9">
         <v>1665</v>
@@ -5170,16 +5170,16 @@
         <v>0</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N137" s="9">
         <v>9975</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>38</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>2421644</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H138" s="11">
         <v>5235856</v>
@@ -5206,19 +5206,19 @@
         <v>5753502</v>
       </c>
       <c r="K138" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L138" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N138" s="11">
         <v>23469673</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>39</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>2201508</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>40</v>
       </c>
@@ -5275,13 +5275,13 @@
         <v>995435</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K140" s="11">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>41</v>
       </c>
@@ -5305,22 +5305,22 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G141" s="9">
         <v>12199690</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K141" s="9">
         <v>21820222</v>
@@ -5332,10 +5332,10 @@
         <v>6942678</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>17</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>25874557</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5387,7 +5387,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5402,7 +5402,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5417,7 +5417,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>49</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5469,46 +5469,46 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K148" s="9">
         <v>0</v>
       </c>
       <c r="L148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>32</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>33</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F150" s="9">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>34</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>35</v>
       </c>
@@ -5634,37 +5634,37 @@
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>36</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>37</v>
       </c>
@@ -5712,16 +5712,16 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I154" s="9">
         <v>0</v>
@@ -5733,16 +5733,16 @@
         <v>0</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N154" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>38</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H155" s="11">
         <v>0</v>
@@ -5769,19 +5769,19 @@
         <v>0</v>
       </c>
       <c r="K155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N155" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>39</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>40</v>
       </c>
@@ -5838,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K157" s="11">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>41</v>
       </c>
@@ -5868,22 +5868,22 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G158" s="9">
         <v>0</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K158" s="9">
         <v>0</v>
@@ -5895,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>17</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5950,7 +5950,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5965,7 +5965,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5980,7 +5980,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>50</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6032,46 +6032,46 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N165" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>32</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>2015207</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>33</v>
       </c>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F167" s="9">
         <v>-7054645</v>
@@ -6149,7 +6149,7 @@
         <v>2318733</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>34</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>5438832</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>35</v>
       </c>
@@ -6197,37 +6197,37 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>36</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>3048895</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>37</v>
       </c>
@@ -6275,37 +6275,37 @@
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I171" s="9">
         <v>407589</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K171" s="9">
         <v>0</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N171" s="9">
         <v>668835</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>38</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>210376509</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H172" s="11">
         <v>385017722</v>
@@ -6332,19 +6332,19 @@
         <v>378121845</v>
       </c>
       <c r="K172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N172" s="11">
         <v>374890949</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>39</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>1911031250</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>40</v>
       </c>
@@ -6392,37 +6392,37 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N174" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>41</v>
       </c>
@@ -6431,22 +6431,22 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G175" s="9">
         <v>218769658</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K175" s="9">
         <v>380328767</v>
@@ -6458,10 +6458,10 @@
         <v>299860839</v>
       </c>
       <c r="N175" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6476,7 +6476,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6491,7 +6491,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6506,7 +6506,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>52</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6558,46 +6558,46 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M181" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N181" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>32</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>2015207</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>33</v>
       </c>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F183" s="9">
         <v>-7054645</v>
@@ -6675,7 +6675,7 @@
         <v>2318733</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>5438832</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>35</v>
       </c>
@@ -6723,37 +6723,37 @@
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M185" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>36</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>3048895</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>37</v>
       </c>
@@ -6801,37 +6801,37 @@
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I187" s="9">
         <v>407589</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K187" s="9">
         <v>0</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M187" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N187" s="9">
         <v>668835</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>38</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>210376509</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H188" s="11">
         <v>385017722</v>
@@ -6858,19 +6858,19 @@
         <v>378121845</v>
       </c>
       <c r="K188" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L188" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M188" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N188" s="11">
         <v>374890949</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>39</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1911031250</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>40</v>
       </c>
@@ -6918,37 +6918,37 @@
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M190" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N190" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>41</v>
       </c>
@@ -6957,22 +6957,22 @@
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G191" s="9">
         <v>218769658</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K191" s="9">
         <v>380328767</v>
@@ -6984,10 +6984,10 @@
         <v>299860839</v>
       </c>
       <c r="N191" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -7002,7 +7002,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -7017,7 +7017,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7032,7 +7032,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>53</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -7084,7 +7084,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>54</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>6330173</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>55</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>56</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>57</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>58</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>10147364</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>59</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>9085178</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>60</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>2407856</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>61</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>62</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>63</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>41530028</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="14" t="s">
         <v>17</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>69500599</v>
       </c>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7506,7 +7506,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -7521,7 +7521,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7536,7 +7536,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
         <v>64</v>
       </c>
@@ -7553,7 +7553,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -7568,7 +7568,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>65</v>
       </c>
@@ -7587,7 +7587,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>67</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>69</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>71</v>
       </c>
@@ -7644,7 +7644,7 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>71</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>74</v>
       </c>
@@ -7666,7 +7666,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>76</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>78</v>
       </c>
@@ -7688,7 +7688,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>79</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>81</v>
       </c>
@@ -7710,7 +7710,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>83</v>
       </c>
@@ -7721,7 +7721,7 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
         <v>85</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>87</v>
       </c>
